--- a/biology/Médecine/Jean_Baseilhac/Jean_Baseilhac.xlsx
+++ b/biology/Médecine/Jean_Baseilhac/Jean_Baseilhac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Baseilhac, dit frère Côme (ou Cosme) est un chirurgien et lithotomiste français, né en 1703 à Pouyastruc près de Tarbes et mort en 1781[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Baseilhac, dit frère Côme (ou Cosme) est un chirurgien et lithotomiste français, né en 1703 à Pouyastruc près de Tarbes et mort en 1781.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vint exercer à Paris et fut attaché à l'Hôtel-Dieu. Il jouissait déjà d'une grande réputation quand il prit l'habit chez les Feuillants en 1729. C'est là qu'il reçut le nom de frère Jean de Saint-Côme, saint Côme étant le patron des chirurgiens.
 Il fonda à ses frais à Paris un hospice pour les pauvres où il exerçait en personne.
-En 1767, par ses sollicitations auprès du contrôleur général Bertin, Jean Baseilhac, convaincu de l’utilité des cours qu’elle dispensait, fit obtenir un brevet à la célèbre accoucheuse Angélique du Coudray[2].
-Il est l'ancêtre du président du Tribunal du Commerce de Tarbes Jean Baseuilhac[1].
+En 1767, par ses sollicitations auprès du contrôleur général Bertin, Jean Baseilhac, convaincu de l’utilité des cours qu’elle dispensait, fit obtenir un brevet à la célèbre accoucheuse Angélique du Coudray.
+Il est l'ancêtre du président du Tribunal du Commerce de Tarbes Jean Baseuilhac.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Baseilhac est l'inventeur, entre autres instruments, du lithotome [3], dont le fonctionnement limitait les inconvénients et les dangers des méthodes antérieures - notamment celle de Jacques de Beaulieu (1651-1714).
-Une polémique l'opposa au célèbre chirurgien Claude-Nicolas Le Cat à propos de sa pratique du lithotome caché (Parallèle de la taille latérale avec celle du lithotome caché, publié par Le Cat en 1766 à Amsterdam sous le pseudonyme A.-P. Nahuys)[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Baseilhac est l'inventeur, entre autres instruments, du lithotome , dont le fonctionnement limitait les inconvénients et les dangers des méthodes antérieures - notamment celle de Jacques de Beaulieu (1651-1714).
+Une polémique l'opposa au célèbre chirurgien Claude-Nicolas Le Cat à propos de sa pratique du lithotome caché (Parallèle de la taille latérale avec celle du lithotome caché, publié par Le Cat en 1766 à Amsterdam sous le pseudonyme A.-P. Nahuys)
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Méthode d'extraire la pierre de la vessie urinaire par-dessus le pubis (…), Paris, d'Houry, 1779. Avec figures en taille-douce. Lire en ligne.</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La figure de frère Cosme apparaît plusieurs fois chez Diderot, notamment dans Jacques le fataliste où le Maître lui attribue une opération de la taille réussie[5] et dans sa lettre à Sophie Volland du 1er décembre 1765[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La figure de frère Cosme apparaît plusieurs fois chez Diderot, notamment dans Jacques le fataliste où le Maître lui attribue une opération de la taille réussie et dans sa lettre à Sophie Volland du 1er décembre 1765.
 </t>
         </is>
       </c>
